--- a/comandas.xlsx
+++ b/comandas.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,65 +471,33 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Preco</t>
+          <t>Preço</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Quantidade</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Valor</t>
+          <t>Valor R$</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pitu</t>
+          <t>Espeto</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cerveja</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Espeto</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
         <v>30</v>
       </c>
     </row>

--- a/comandas.xlsx
+++ b/comandas.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Comandas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Mesa 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Mesa 1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Quant.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -488,17 +488,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Espeto</t>
+          <t>Cachaca</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queijo </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ESPETO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
